--- a/Car Price List.xlsx
+++ b/Car Price List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itzdu\Desktop\Database Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F6BC4F-F64A-40D6-AEBE-64754E96727A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A79DA26-3263-4005-88B0-AEB0F347E610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="30936" windowHeight="16896" xr2:uid="{5DF00017-B3B6-45A6-B9B7-DF4726A0B877}"/>
+    <workbookView xWindow="30612" yWindow="492" windowWidth="30936" windowHeight="16896" xr2:uid="{5DF00017-B3B6-45A6-B9B7-DF4726A0B877}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,9 +135,6 @@
     <t>2025 Civic Sport Touring Hybrid</t>
   </si>
   <si>
-    <t>*Discount ($)</t>
-  </si>
-  <si>
     <t>2024 Audi S6 3.0T</t>
   </si>
   <si>
@@ -184,6 +181,9 @@
   </si>
   <si>
     <t>Dimensions</t>
+  </si>
+  <si>
+    <t>Discount ($)</t>
   </si>
 </sst>
 </file>
@@ -216,7 +216,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,7 +243,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,7 +289,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -303,12 +315,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -324,6 +330,9 @@
     <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -340,6 +349,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -660,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3025D9-5964-4081-B1C3-FA8B7471B24E}">
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -706,16 +751,16 @@
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>22</v>
@@ -751,7 +796,7 @@
         <v>4</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>27</v>
@@ -775,903 +820,936 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="10">
         <v>45545</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="11">
         <v>31787</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="11">
         <v>33000</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="12">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="12">
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="12">
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="9">
         <v>48</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="11">
         <v>12000</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="11">
         <v>569.75</v>
       </c>
-      <c r="U2" s="6">
-        <f>(J2+Y2+Q2)-(P2+R2)</f>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="11">
+        <f t="shared" ref="U2:U15" si="0">(J2+Y2+Q2)-(P2+R2)</f>
         <v>23138.112500000003</v>
       </c>
-      <c r="V2" s="6">
-        <f>X2-U2</f>
+      <c r="V2" s="11">
+        <f t="shared" ref="V2:V15" si="1">X2-U2</f>
         <v>3452.1383821919699</v>
       </c>
-      <c r="W2" s="6">
-        <f>(U2*(M2/12))/(1-(1+(M2/12))^(O2*-1))</f>
+      <c r="W2" s="11">
+        <f t="shared" ref="W2:W15" si="2">(U2*(M2/12))/(1-(1+(M2/12))^(O2*-1))</f>
         <v>553.9635600456661</v>
       </c>
-      <c r="X2" s="6">
-        <f>W2*O2</f>
+      <c r="X2" s="11">
+        <f t="shared" ref="X2:X15" si="3">W2*O2</f>
         <v>26590.250882191973</v>
       </c>
-      <c r="Y2" s="9">
-        <f>J2*L2</f>
+      <c r="Y2" s="13">
+        <f t="shared" ref="Y2:Y15" si="4">J2*L2</f>
         <v>2781.3624999999997</v>
       </c>
-      <c r="Z2" s="9">
-        <f>X2+P2</f>
+      <c r="Z2" s="13">
+        <f t="shared" ref="Z2:Z15" si="5">X2+P2</f>
         <v>38590.250882191976</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="10">
+        <v>45558</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="11">
+        <v>36332</v>
+      </c>
+      <c r="K3" s="11">
+        <v>34045</v>
+      </c>
+      <c r="L3" s="12">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="M3" s="12">
+        <v>6.9900000000000004E-2</v>
+      </c>
+      <c r="N3" s="12">
+        <v>6.9900000000000004E-2</v>
+      </c>
+      <c r="O3" s="9">
+        <v>48</v>
+      </c>
+      <c r="P3" s="11">
+        <v>12000</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>649.75</v>
+      </c>
+      <c r="R3" s="11">
+        <v>0</v>
+      </c>
+      <c r="S3" s="11"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="11">
+        <f t="shared" si="0"/>
+        <v>28160.800000000003</v>
+      </c>
+      <c r="V3" s="11">
+        <f t="shared" si="1"/>
+        <v>4201.5085955361101</v>
+      </c>
+      <c r="W3" s="11">
+        <f t="shared" si="2"/>
+        <v>674.21476240700235</v>
+      </c>
+      <c r="X3" s="11">
+        <f t="shared" si="3"/>
+        <v>32362.308595536113</v>
+      </c>
+      <c r="Y3" s="13">
+        <f t="shared" si="4"/>
+        <v>3179.0499999999997</v>
+      </c>
+      <c r="Z3" s="13">
+        <f t="shared" si="5"/>
+        <v>44362.308595536117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="21" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21">
+        <v>2</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="22">
         <v>45545</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="6">
-        <v>31787</v>
-      </c>
-      <c r="K3" s="6">
-        <v>33000</v>
-      </c>
-      <c r="L3" s="8">
+      <c r="I4" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="23">
+        <v>35589</v>
+      </c>
+      <c r="K4" s="23">
+        <v>32249</v>
+      </c>
+      <c r="L4" s="24">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="M3" s="8">
-        <v>6.9900000000000004E-2</v>
-      </c>
-      <c r="N3" s="8">
-        <v>6.9900000000000004E-2</v>
-      </c>
-      <c r="O3" s="2">
+      <c r="M4" s="24">
+        <v>8.9899999999999994E-2</v>
+      </c>
+      <c r="N4" s="24">
+        <v>8.9899999999999994E-2</v>
+      </c>
+      <c r="O4" s="21">
+        <v>36</v>
+      </c>
+      <c r="P4" s="23">
+        <v>12000</v>
+      </c>
+      <c r="Q4" s="23">
+        <v>511</v>
+      </c>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="23">
+        <f t="shared" si="0"/>
+        <v>27214.037499999999</v>
+      </c>
+      <c r="V4" s="23">
+        <f t="shared" si="1"/>
+        <v>3935.7712416274335</v>
+      </c>
+      <c r="W4" s="23">
+        <f t="shared" si="2"/>
+        <v>865.27246504520645</v>
+      </c>
+      <c r="X4" s="23">
+        <f t="shared" si="3"/>
+        <v>31149.808741627432</v>
+      </c>
+      <c r="Y4" s="26">
+        <f t="shared" si="4"/>
+        <v>3114.0374999999999</v>
+      </c>
+      <c r="Z4" s="26">
+        <f t="shared" si="5"/>
+        <v>43149.808741627436</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="16">
+        <v>45545</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="17">
+        <v>44245</v>
+      </c>
+      <c r="K5" s="17">
+        <v>44245</v>
+      </c>
+      <c r="L5" s="18">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="18">
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="O5" s="15">
+        <v>36</v>
+      </c>
+      <c r="P5" s="17">
+        <v>15000</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>757.75</v>
+      </c>
+      <c r="R5" s="17">
+        <v>1000</v>
+      </c>
+      <c r="S5" s="17"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="17">
+        <f t="shared" si="0"/>
+        <v>32431.737500000003</v>
+      </c>
+      <c r="V5" s="17" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W5" s="17" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X5" s="17" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y5" s="20">
+        <f t="shared" si="4"/>
+        <v>3428.9875000000002</v>
+      </c>
+      <c r="Z5" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="16">
+        <v>45548</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="P3" s="6">
-        <v>12000</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>569.75</v>
-      </c>
-      <c r="R3" s="6">
-        <v>500</v>
-      </c>
-      <c r="S3" s="6">
-        <v>3500</v>
-      </c>
-      <c r="U3" s="6">
-        <f>(J3+Y3+Q3)-(P3+R3)</f>
-        <v>22638.112500000003</v>
-      </c>
-      <c r="V3" s="6">
-        <f>X3-U3</f>
-        <v>3377.5398516897076</v>
-      </c>
-      <c r="W3" s="6">
-        <f>(U3*(M3/12))/(1-(1+(M3/12))^(O3*-1))</f>
-        <v>541.99275732686897</v>
-      </c>
-      <c r="X3" s="6">
-        <f>W3*O3</f>
-        <v>26015.65235168971</v>
-      </c>
-      <c r="Y3" s="9">
-        <f>J3*L3</f>
-        <v>2781.3624999999997</v>
-      </c>
-      <c r="Z3" s="9">
-        <f>X3+P3</f>
-        <v>38015.652351689714</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="10">
-        <v>45545</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="6">
-        <v>35589</v>
-      </c>
-      <c r="K4" s="6">
-        <v>32249</v>
-      </c>
-      <c r="L4" s="8">
+      <c r="I6" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="17">
+        <v>49995</v>
+      </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="18">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="M4" s="8">
-        <v>8.9899999999999994E-2</v>
-      </c>
-      <c r="N4" s="8">
-        <v>8.9899999999999994E-2</v>
-      </c>
-      <c r="O4" s="2">
+      <c r="M6" s="18">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="N6" s="18">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="O6" s="15">
         <v>36</v>
       </c>
-      <c r="P4" s="6">
-        <v>12000</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>511</v>
-      </c>
-      <c r="U4" s="6">
-        <f>(J4+Y4+Q4)-(P4+R4)</f>
-        <v>27214.037499999999</v>
-      </c>
-      <c r="V4" s="6">
-        <f>X4-U4</f>
-        <v>3935.7712416274335</v>
-      </c>
-      <c r="W4" s="6">
-        <f>(U4*(M4/12))/(1-(1+(M4/12))^(O4*-1))</f>
-        <v>865.27246504520645</v>
-      </c>
-      <c r="X4" s="6">
-        <f>W4*O4</f>
-        <v>31149.808741627432</v>
-      </c>
-      <c r="Y4" s="9">
-        <f>J4*L4</f>
-        <v>3114.0374999999999</v>
-      </c>
-      <c r="Z4" s="9">
-        <f>X4+P4</f>
-        <v>43149.808741627436</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="10">
-        <v>45545</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="6">
-        <v>44245</v>
-      </c>
-      <c r="K5" s="6">
-        <v>44245</v>
-      </c>
-      <c r="L5" s="8">
-        <v>7.7499999999999999E-2</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="8">
-        <v>4.4900000000000002E-2</v>
-      </c>
-      <c r="O5" s="2">
-        <v>36</v>
-      </c>
-      <c r="P5" s="6">
+      <c r="P6" s="17">
         <v>15000</v>
       </c>
-      <c r="Q5" s="6">
-        <v>757.75</v>
-      </c>
-      <c r="R5" s="6">
+      <c r="Q6" s="17">
         <v>1000</v>
       </c>
-      <c r="U5" s="6">
-        <f>(J5+Y5+Q5)-(P5+R5)</f>
-        <v>32431.737500000003</v>
-      </c>
-      <c r="V5" s="6" t="e">
-        <f>X5-U5</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W5" s="6" t="e">
-        <f>(U5*(M5/12))/(1-(1+(M5/12))^(O5*-1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X5" s="6" t="e">
-        <f>W5*O5</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y5" s="9">
-        <f>J5*L5</f>
-        <v>3428.9875000000002</v>
-      </c>
-      <c r="Z5" s="9" t="e">
-        <f>X5+P5</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
-        <v>4</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="17">
-        <v>45548</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="18">
-        <v>49995</v>
-      </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="19">
-        <v>8.7499999999999994E-2</v>
-      </c>
-      <c r="M6" s="19">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="N6" s="19">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="O6" s="16">
-        <v>36</v>
-      </c>
-      <c r="P6" s="18">
-        <v>15000</v>
-      </c>
-      <c r="Q6" s="18">
+      <c r="R6" s="17">
         <v>1000</v>
       </c>
-      <c r="R6" s="18">
-        <v>1000</v>
-      </c>
-      <c r="S6" s="18"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="18">
-        <f>(J6+Y6+Q6)-(P6+R6)</f>
+      <c r="S6" s="17"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="17">
+        <f t="shared" si="0"/>
         <v>39369.5625</v>
       </c>
-      <c r="V6" s="18">
-        <f>X6-U6</f>
+      <c r="V6" s="17">
+        <f t="shared" si="1"/>
         <v>4978.2474561444906</v>
       </c>
-      <c r="W6" s="18">
-        <f>(U6*(M6/12))/(1-(1+(M6/12))^(O6*-1))</f>
+      <c r="W6" s="17">
+        <f t="shared" si="2"/>
         <v>1231.8836098929025</v>
       </c>
-      <c r="X6" s="18">
-        <f>W6*O6</f>
+      <c r="X6" s="17">
+        <f t="shared" si="3"/>
         <v>44347.809956144491</v>
       </c>
-      <c r="Y6" s="21">
-        <f>J6*L6</f>
+      <c r="Y6" s="20">
+        <f t="shared" si="4"/>
         <v>4374.5625</v>
       </c>
-      <c r="Z6" s="21">
-        <f>X6+P6</f>
+      <c r="Z6" s="20">
+        <f t="shared" si="5"/>
         <v>59347.809956144491</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="15">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="16">
         <v>45545</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="17">
         <v>57300</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="17">
         <v>50100</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="18">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="18">
         <v>6.2899999999999998E-2</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="18">
         <v>6.2899999999999998E-2</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="15">
         <v>48</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="17">
         <v>15000</v>
       </c>
-      <c r="U7" s="6">
-        <f>(J7+Y7+Q7)-(P7+R7)</f>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="17">
+        <f t="shared" si="0"/>
         <v>47313.75</v>
       </c>
-      <c r="V7" s="6">
-        <f>X7-U7</f>
+      <c r="V7" s="17">
+        <f t="shared" si="1"/>
         <v>6324.6405453844636</v>
       </c>
-      <c r="W7" s="6">
-        <f>(U7*(M7/12))/(1-(1+(M7/12))^(O7*-1))</f>
+      <c r="W7" s="17">
+        <f t="shared" si="2"/>
         <v>1117.4664696955097</v>
       </c>
-      <c r="X7" s="6">
-        <f>W7*O7</f>
+      <c r="X7" s="17">
+        <f t="shared" si="3"/>
         <v>53638.390545384464</v>
       </c>
-      <c r="Y7" s="9">
-        <f>J7*L7</f>
+      <c r="Y7" s="20">
+        <f t="shared" si="4"/>
         <v>5013.75</v>
       </c>
-      <c r="Z7" s="9">
-        <f>X7+P7</f>
+      <c r="Z7" s="20">
+        <f t="shared" si="5"/>
         <v>68638.390545384464</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="8" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="16">
         <v>45545</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="17">
         <v>58795</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="17">
         <v>58795</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="18">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="18">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="18">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="15">
         <v>48</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="17">
         <v>15000</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="17">
         <v>724.75</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="17">
         <v>500</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="17">
         <v>0</v>
       </c>
-      <c r="U8" s="6">
-        <f>(J8+Y8+Q8)-(P8+R8)</f>
+      <c r="T8" s="19"/>
+      <c r="U8" s="17">
+        <f t="shared" si="0"/>
         <v>49164.3125</v>
       </c>
-      <c r="V8" s="6">
-        <f>X8-U8</f>
+      <c r="V8" s="17">
+        <f t="shared" si="1"/>
         <v>5075.3824067594542</v>
       </c>
-      <c r="W8" s="6">
-        <f>(U8*(M8/12))/(1-(1+(M8/12))^(O8*-1))</f>
+      <c r="W8" s="17">
+        <f t="shared" si="2"/>
         <v>1129.9936438908219</v>
       </c>
-      <c r="X8" s="6">
-        <f>W8*O8</f>
+      <c r="X8" s="17">
+        <f t="shared" si="3"/>
         <v>54239.694906759454</v>
       </c>
-      <c r="Y8" s="9">
-        <f>J8*L8</f>
+      <c r="Y8" s="20">
+        <f t="shared" si="4"/>
         <v>5144.5625</v>
       </c>
-      <c r="Z8" s="9">
-        <f>X8+P8</f>
+      <c r="Z8" s="20">
+        <f t="shared" si="5"/>
         <v>69239.694906759454</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+    <row r="9" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
         <v>4</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="16">
         <v>45542</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="17">
         <v>58795</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="17">
         <v>58795</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="18">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="18">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="18">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="15">
         <v>48</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="17">
         <v>15000</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="17">
         <v>722.75</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="17">
         <v>500</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="17">
         <v>0</v>
       </c>
-      <c r="T9" s="4"/>
-      <c r="U9" s="6">
-        <f>(J9+Y9+Q9)-(P9+R9)</f>
+      <c r="T9" s="19"/>
+      <c r="U9" s="17">
+        <f t="shared" si="0"/>
         <v>49162.3125</v>
       </c>
-      <c r="V9" s="6">
-        <f>X9-U9</f>
+      <c r="V9" s="17">
+        <f t="shared" si="1"/>
         <v>5075.1759406400815</v>
       </c>
-      <c r="W9" s="6">
-        <f>(U9*(M9/12))/(1-(1+(M9/12))^(O9*-1))</f>
+      <c r="W9" s="17">
+        <f t="shared" si="2"/>
         <v>1129.9476758466683</v>
       </c>
-      <c r="X9" s="6">
-        <f>W9*O9</f>
+      <c r="X9" s="17">
+        <f t="shared" si="3"/>
         <v>54237.488440640082</v>
       </c>
-      <c r="Y9" s="9">
-        <f>J9*L9</f>
+      <c r="Y9" s="20">
+        <f t="shared" si="4"/>
         <v>5144.5625</v>
       </c>
-      <c r="Z9" s="9">
-        <f>X9+P9</f>
+      <c r="Z9" s="20">
+        <f t="shared" si="5"/>
         <v>69237.488440640082</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+    <row r="10" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
         <v>4</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="16">
         <v>45546</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="11" t="s">
+      <c r="H10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="17">
+        <v>59045</v>
+      </c>
+      <c r="K10" s="17">
+        <v>55895</v>
+      </c>
+      <c r="L10" s="18">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="M10" s="18">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="N10" s="18">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="O10" s="15">
+        <v>48</v>
+      </c>
+      <c r="P10" s="17">
+        <v>15000</v>
+      </c>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17">
+        <v>1000</v>
+      </c>
+      <c r="S10" s="17"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="17">
+        <f t="shared" si="0"/>
+        <v>48211.4375</v>
+      </c>
+      <c r="V10" s="17">
+        <f t="shared" si="1"/>
+        <v>6030.3836659772496</v>
+      </c>
+      <c r="W10" s="17">
+        <f t="shared" si="2"/>
+        <v>1130.0379409578593</v>
+      </c>
+      <c r="X10" s="17">
+        <f t="shared" si="3"/>
+        <v>54241.82116597725</v>
+      </c>
+      <c r="Y10" s="20">
+        <f t="shared" si="4"/>
+        <v>5166.4375</v>
+      </c>
+      <c r="Z10" s="20">
+        <f t="shared" si="5"/>
+        <v>69241.82116597725</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>4</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="16">
+        <v>45546</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="17">
+        <v>59055</v>
+      </c>
+      <c r="K11" s="17">
+        <v>59055</v>
+      </c>
+      <c r="L11" s="18">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="M11" s="18">
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="N11" s="18">
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="O11" s="15">
+        <v>48</v>
+      </c>
+      <c r="P11" s="17">
+        <v>15000</v>
+      </c>
+      <c r="Q11" s="17">
+        <v>757.75</v>
+      </c>
+      <c r="R11" s="17">
+        <v>1000</v>
+      </c>
+      <c r="S11" s="17"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="17">
+        <f t="shared" si="0"/>
+        <v>48389.512499999997</v>
+      </c>
+      <c r="V11" s="17">
+        <f t="shared" si="1"/>
+        <v>4565.6100208878343</v>
+      </c>
+      <c r="W11" s="17">
+        <f t="shared" si="2"/>
+        <v>1103.2317191851632</v>
+      </c>
+      <c r="X11" s="17">
+        <f t="shared" si="3"/>
+        <v>52955.122520887831</v>
+      </c>
+      <c r="Y11" s="20">
+        <f t="shared" si="4"/>
+        <v>4576.7624999999998</v>
+      </c>
+      <c r="Z11" s="20">
+        <f t="shared" si="5"/>
+        <v>67955.122520887831</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
+        <v>4</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="16">
+        <v>45542</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="17">
+        <v>59545</v>
+      </c>
+      <c r="K12" s="17">
+        <v>58795</v>
+      </c>
+      <c r="L12" s="18">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="M12" s="18">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="N12" s="18">
+        <v>7.2900000000000006E-2</v>
+      </c>
+      <c r="O12" s="15">
+        <v>48</v>
+      </c>
+      <c r="P12" s="17">
+        <v>15000</v>
+      </c>
+      <c r="Q12" s="17">
+        <v>729.75</v>
+      </c>
+      <c r="R12" s="17">
+        <v>0</v>
+      </c>
+      <c r="S12" s="17">
+        <v>0</v>
+      </c>
+      <c r="T12" s="19"/>
+      <c r="U12" s="17">
+        <f t="shared" si="0"/>
+        <v>50484.9375</v>
+      </c>
+      <c r="V12" s="17">
+        <f t="shared" si="1"/>
+        <v>7870.0437036860094</v>
+      </c>
+      <c r="W12" s="17">
+        <f t="shared" si="2"/>
+        <v>1215.7287750767919</v>
+      </c>
+      <c r="X12" s="17">
+        <f t="shared" si="3"/>
+        <v>58354.981203686009</v>
+      </c>
+      <c r="Y12" s="20">
+        <f t="shared" si="4"/>
+        <v>5210.1875</v>
+      </c>
+      <c r="Z12" s="20">
+        <f t="shared" si="5"/>
+        <v>73354.981203686009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="27">
+        <v>5</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="28">
+        <v>45545</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="29">
+        <v>66230</v>
+      </c>
+      <c r="K13" s="29">
+        <v>59600</v>
+      </c>
+      <c r="L13" s="30">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="M13" s="30">
+        <v>6.2899999999999998E-2</v>
+      </c>
+      <c r="N13" s="30">
+        <v>6.2899999999999998E-2</v>
+      </c>
+      <c r="O13" s="27">
+        <v>48</v>
+      </c>
+      <c r="P13" s="29">
+        <v>15000</v>
+      </c>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="29">
+        <f t="shared" si="0"/>
+        <v>57025.125</v>
+      </c>
+      <c r="V13" s="29">
+        <f t="shared" si="1"/>
+        <v>7622.8034700402641</v>
+      </c>
+      <c r="W13" s="29">
+        <f t="shared" si="2"/>
+        <v>1346.8318431258388</v>
+      </c>
+      <c r="X13" s="29">
+        <f t="shared" si="3"/>
+        <v>64647.928470040264</v>
+      </c>
+      <c r="Y13" s="32">
+        <f t="shared" si="4"/>
+        <v>5795.125</v>
+      </c>
+      <c r="Z13" s="32">
+        <f t="shared" si="5"/>
+        <v>79647.928470040264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="27">
+        <v>5</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="28">
+        <v>45545</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="29">
+        <v>69365</v>
+      </c>
+      <c r="K14" s="29"/>
+      <c r="L14" s="30">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="27">
+        <v>48</v>
+      </c>
+      <c r="P14" s="29">
+        <v>15000</v>
+      </c>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="29">
+        <f t="shared" si="0"/>
+        <v>60434.4375</v>
+      </c>
+      <c r="V14" s="29" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W14" s="29" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X14" s="29" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y14" s="32">
+        <f t="shared" si="4"/>
+        <v>6069.4375</v>
+      </c>
+      <c r="Z14" s="32" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="27">
+        <v>5</v>
+      </c>
+      <c r="B15" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="13">
-        <v>59045</v>
-      </c>
-      <c r="K10" s="13">
-        <v>55895</v>
-      </c>
-      <c r="L10" s="14">
+      <c r="C15" s="28">
+        <v>45545</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29">
+        <v>61600</v>
+      </c>
+      <c r="L15" s="30">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="M10" s="14">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="N10" s="14">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="O10" s="11">
+      <c r="M15" s="30">
+        <v>6.2899999999999998E-2</v>
+      </c>
+      <c r="N15" s="30">
+        <v>6.2899999999999998E-2</v>
+      </c>
+      <c r="O15" s="27">
         <v>48</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P15" s="29">
         <v>15000</v>
       </c>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13">
-        <v>1000</v>
-      </c>
-      <c r="S10" s="13"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="13">
-        <f>(J10+Y10+Q10)-(P10+R10)</f>
-        <v>48211.4375</v>
-      </c>
-      <c r="V10" s="13">
-        <f>X10-U10</f>
-        <v>6030.3836659772496</v>
-      </c>
-      <c r="W10" s="13">
-        <f>(U10*(M10/12))/(1-(1+(M10/12))^(O10*-1))</f>
-        <v>1130.0379409578593</v>
-      </c>
-      <c r="X10" s="13">
-        <f>W10*O10</f>
-        <v>54241.82116597725</v>
-      </c>
-      <c r="Y10" s="15">
-        <f>J10*L10</f>
-        <v>5166.4375</v>
-      </c>
-      <c r="Z10" s="15">
-        <f>X10+P10</f>
-        <v>69241.82116597725</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="10">
-        <v>45546</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="6">
-        <v>59055</v>
-      </c>
-      <c r="K11" s="6">
-        <v>59055</v>
-      </c>
-      <c r="L11" s="8">
-        <v>7.7499999999999999E-2</v>
-      </c>
-      <c r="M11" s="8">
-        <v>4.4900000000000002E-2</v>
-      </c>
-      <c r="N11" s="8">
-        <v>4.4900000000000002E-2</v>
-      </c>
-      <c r="O11" s="2">
-        <v>48</v>
-      </c>
-      <c r="P11" s="6">
-        <v>15000</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>757.75</v>
-      </c>
-      <c r="R11" s="6">
-        <v>1000</v>
-      </c>
-      <c r="U11" s="6">
-        <f>(J11+Y11+Q11)-(P11+R11)</f>
-        <v>48389.512499999997</v>
-      </c>
-      <c r="V11" s="6">
-        <f>X11-U11</f>
-        <v>4565.6100208878343</v>
-      </c>
-      <c r="W11" s="6">
-        <f>(U11*(M11/12))/(1-(1+(M11/12))^(O11*-1))</f>
-        <v>1103.2317191851632</v>
-      </c>
-      <c r="X11" s="6">
-        <f>W11*O11</f>
-        <v>52955.122520887831</v>
-      </c>
-      <c r="Y11" s="9">
-        <f>J11*L11</f>
-        <v>4576.7624999999998</v>
-      </c>
-      <c r="Z11" s="9">
-        <f>X11+P11</f>
-        <v>67955.122520887831</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>4</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="10">
-        <v>45542</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="6">
-        <v>59545</v>
-      </c>
-      <c r="K12" s="6">
-        <v>58795</v>
-      </c>
-      <c r="L12" s="8">
-        <v>8.7499999999999994E-2</v>
-      </c>
-      <c r="M12" s="8">
-        <v>7.2900000000000006E-2</v>
-      </c>
-      <c r="N12" s="8">
-        <v>7.2900000000000006E-2</v>
-      </c>
-      <c r="O12" s="2">
-        <v>48</v>
-      </c>
-      <c r="P12" s="6">
-        <v>15000</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>729.75</v>
-      </c>
-      <c r="R12" s="6">
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="29">
+        <f t="shared" si="0"/>
+        <v>-15000</v>
+      </c>
+      <c r="V15" s="29">
+        <f t="shared" si="1"/>
+        <v>-2005.1170786667062</v>
+      </c>
+      <c r="W15" s="29">
+        <f t="shared" si="2"/>
+        <v>-354.27327247222308</v>
+      </c>
+      <c r="X15" s="29">
+        <f t="shared" si="3"/>
+        <v>-17005.117078666706</v>
+      </c>
+      <c r="Y15" s="32">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S12" s="6">
-        <v>0</v>
-      </c>
-      <c r="U12" s="6">
-        <f>(J12+Y12+Q12)-(P12+R12)</f>
-        <v>50484.9375</v>
-      </c>
-      <c r="V12" s="6">
-        <f>X12-U12</f>
-        <v>7870.0437036860094</v>
-      </c>
-      <c r="W12" s="6">
-        <f>(U12*(M12/12))/(1-(1+(M12/12))^(O12*-1))</f>
-        <v>1215.7287750767919</v>
-      </c>
-      <c r="X12" s="6">
-        <f>W12*O12</f>
-        <v>58354.981203686009</v>
-      </c>
-      <c r="Y12" s="9">
-        <f>J12*L12</f>
-        <v>5210.1875</v>
-      </c>
-      <c r="Z12" s="9">
-        <f>X12+P12</f>
-        <v>73354.981203686009</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>5</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="10">
-        <v>45545</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="6">
-        <v>66230</v>
-      </c>
-      <c r="K13" s="6">
-        <v>59600</v>
-      </c>
-      <c r="L13" s="8">
-        <v>8.7499999999999994E-2</v>
-      </c>
-      <c r="M13" s="8">
-        <v>6.2899999999999998E-2</v>
-      </c>
-      <c r="N13" s="8">
-        <v>6.2899999999999998E-2</v>
-      </c>
-      <c r="O13" s="2">
-        <v>48</v>
-      </c>
-      <c r="P13" s="6">
-        <v>15000</v>
-      </c>
-      <c r="U13" s="6">
-        <f>(J13+Y13+Q13)-(P13+R13)</f>
-        <v>57025.125</v>
-      </c>
-      <c r="V13" s="6">
-        <f>X13-U13</f>
-        <v>7622.8034700402641</v>
-      </c>
-      <c r="W13" s="6">
-        <f>(U13*(M13/12))/(1-(1+(M13/12))^(O13*-1))</f>
-        <v>1346.8318431258388</v>
-      </c>
-      <c r="X13" s="6">
-        <f>W13*O13</f>
-        <v>64647.928470040264</v>
-      </c>
-      <c r="Y13" s="9">
-        <f>J13*L13</f>
-        <v>5795.125</v>
-      </c>
-      <c r="Z13" s="9">
-        <f>X13+P13</f>
-        <v>79647.928470040264</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="10">
-        <v>45545</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J14" s="6">
-        <v>69365</v>
-      </c>
-      <c r="L14" s="8">
-        <v>8.7499999999999994E-2</v>
-      </c>
-      <c r="O14" s="2">
-        <v>48</v>
-      </c>
-      <c r="P14" s="6">
-        <v>15000</v>
-      </c>
-      <c r="U14" s="6">
-        <f>(J14+Y14+Q14)-(P14+R14)</f>
-        <v>60434.4375</v>
-      </c>
-      <c r="V14" s="6" t="e">
-        <f>X14-U14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W14" s="6" t="e">
-        <f>(U14*(M14/12))/(1-(1+(M14/12))^(O14*-1))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X14" s="6" t="e">
-        <f>W14*O14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y14" s="9">
-        <f>J14*L14</f>
-        <v>6069.4375</v>
-      </c>
-      <c r="Z14" s="9" t="e">
-        <f>X14+P14</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="10">
-        <v>45545</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="6">
-        <v>61600</v>
-      </c>
-      <c r="L15" s="8">
-        <v>8.7499999999999994E-2</v>
-      </c>
-      <c r="M15" s="8">
-        <v>6.2899999999999998E-2</v>
-      </c>
-      <c r="N15" s="8">
-        <v>6.2899999999999998E-2</v>
-      </c>
-      <c r="O15" s="2">
-        <v>48</v>
-      </c>
-      <c r="P15" s="6">
-        <v>15000</v>
-      </c>
-      <c r="U15" s="6">
-        <f>(J15+Y15+Q15)-(P15+R15)</f>
-        <v>-15000</v>
-      </c>
-      <c r="V15" s="6">
-        <f>X15-U15</f>
-        <v>-2005.1170786667062</v>
-      </c>
-      <c r="W15" s="6">
-        <f>(U15*(M15/12))/(1-(1+(M15/12))^(O15*-1))</f>
-        <v>-354.27327247222308</v>
-      </c>
-      <c r="X15" s="6">
-        <f>W15*O15</f>
-        <v>-17005.117078666706</v>
-      </c>
-      <c r="Y15" s="9">
-        <f>J15*L15</f>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="9">
-        <f>X15+P15</f>
+      <c r="Z15" s="32">
+        <f t="shared" si="5"/>
         <v>-2005.1170786667062</v>
       </c>
     </row>

--- a/Car Price List.xlsx
+++ b/Car Price List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itzdu\Desktop\Database Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A79DA26-3263-4005-88B0-AEB0F347E610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC75E57D-2353-4CEE-909B-90C001D071FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="492" windowWidth="30936" windowHeight="16896" xr2:uid="{5DF00017-B3B6-45A6-B9B7-DF4726A0B877}"/>
   </bookViews>
@@ -705,9 +705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3025D9-5964-4081-B1C3-FA8B7471B24E}">
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="144" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
